--- a/Fig.6.xlsx
+++ b/Fig.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\VPP\原始数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151CCBF0-C5DC-44FF-B51B-14CBE30CC569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4708FC89-F899-4D5B-9F80-E78374C62337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Curing thickness</t>
   </si>
@@ -81,10 +81,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>Actual curing thickness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Theoretical curing thickness</t>
@@ -147,6 +143,18 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curing thickness(Average value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curing thickness(Sample data of average value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual curing thickness(Average value)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,12 +240,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,10 +274,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,284 +563,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.3">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.3">
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>66</v>
       </c>
       <c r="B4" s="1">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>66</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2.39</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="4">
         <v>59</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>60</v>
+      </c>
+      <c r="J4" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <v>58.3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="1">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="E5" s="1">
         <v>85</v>
       </c>
-      <c r="B5" s="1">
+      <c r="F5" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1">
+        <v>58</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="L5" s="1">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="M5" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="E6" s="1">
+        <v>101</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1">
+        <v>59</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="L6" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4">
         <v>1.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E7" s="1">
+        <v>115</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="H7" s="4">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1">
+        <v>66</v>
+      </c>
+      <c r="J7" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>74.36</v>
+      </c>
+      <c r="M7" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1">
+        <v>86</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="E8" s="1">
+        <v>125</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="1">
+        <v>66</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="L8" s="1">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="M8" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="E9" s="1">
+        <v>134</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="1">
+        <v>67</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="L9" s="1">
+        <v>82.95</v>
+      </c>
+      <c r="M9" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="1">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>142</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="H10" s="4">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1">
+        <v>70</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1">
+        <v>86.79</v>
+      </c>
+      <c r="M10" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1">
+        <v>71</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1">
+        <v>104</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1">
+        <v>72</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>115</v>
+      </c>
+      <c r="B13" s="1">
+        <v>115</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>75</v>
+      </c>
+      <c r="I13" s="1">
+        <v>75</v>
+      </c>
+      <c r="J13" s="4">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1">
+        <v>116</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1">
+        <v>75</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>114</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="1">
+        <v>75</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>125</v>
+      </c>
+      <c r="B16" s="1">
+        <v>125</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>80</v>
+      </c>
+      <c r="I16" s="1">
+        <v>79</v>
+      </c>
+      <c r="J16" s="4">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1">
+        <v>126</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="1">
+        <v>81</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1">
+        <v>124</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="1">
+        <v>80</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>134</v>
+      </c>
+      <c r="B19" s="1">
+        <v>133</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>84</v>
+      </c>
+      <c r="I19" s="1">
         <v>85</v>
       </c>
-      <c r="E5" s="1">
-        <v>2.79</v>
-      </c>
-      <c r="G5" s="1">
-        <v>66</v>
-      </c>
-      <c r="H5" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="I5" s="1">
-        <v>64.180000000000007</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>101</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>101</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.08</v>
-      </c>
-      <c r="G6" s="1">
-        <v>71</v>
-      </c>
-      <c r="H6" s="1">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>115</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>115</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.31</v>
-      </c>
-      <c r="G7" s="1">
-        <v>75</v>
-      </c>
-      <c r="H7" s="1">
-        <v>13.1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>74.36</v>
-      </c>
-      <c r="J7" s="1">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>125</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>125</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.49</v>
-      </c>
-      <c r="G8" s="1">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>78.819999999999993</v>
-      </c>
-      <c r="J8" s="1">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>134</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>134</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3.64</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="J19" s="4">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1">
+        <v>132</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="1">
+        <v>83</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1">
+        <v>137</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="1">
         <v>84</v>
       </c>
-      <c r="H9" s="1">
-        <v>15.3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>82.95</v>
-      </c>
-      <c r="J9" s="1">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>142</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B22" s="1">
+        <v>142</v>
+      </c>
+      <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
-        <v>142</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3.78</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="H22" s="4">
         <v>89</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I22" s="1">
+        <v>90</v>
+      </c>
+      <c r="J22" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="I10" s="1">
-        <v>86.79</v>
-      </c>
-      <c r="J10" s="1">
-        <v>16.399999999999999</v>
-      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1">
+        <v>141</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="1">
+        <v>91</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>143</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="1">
+        <v>87</v>
+      </c>
+      <c r="J24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:J1"/>
+  <mergeCells count="31">
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
